--- a/uploads/Railway Operations Compliance exploitation phase.xlsx
+++ b/uploads/Railway Operations Compliance exploitation phase.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="12240" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15195" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -272,6 +272,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
+    <t>Conditions precedent to be satisfied</t>
+  </si>
+  <si>
+    <t>Required Actions or operation</t>
+  </si>
+  <si>
+    <t>Date for compliance (timeframe, deadline)</t>
+  </si>
+  <si>
     <t>Party accountable for compliance</t>
   </si>
   <si>
@@ -281,6 +290,9 @@
     <t>Due date for action</t>
   </si>
   <si>
+    <t>Authority accountable for compliance</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -293,28 +305,71 @@
     <t>Risk/sanction</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Cam Iron</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
+    <t>Within the 4th quarter of every two (2) year 
+period commencing upon Project Commissionin</t>
+  </si>
+  <si>
+    <t>Railway Project Company</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
-    <t>Conditions precedent to be satisfied</t>
-  </si>
-  <si>
-    <t>Required Actions or operation</t>
-  </si>
-  <si>
-    <t>Date for compliance (timeframe, deadline)</t>
-  </si>
-  <si>
-    <t>Authority accountable for compliance</t>
-  </si>
-  <si>
-    <t>Comment</t>
+    <t>Independent Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approved Maintainance Reports </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Every 5 years during the term 
+of the Railway Agreement</t>
+  </si>
+  <si>
+    <t>Railway Project Company
+/ State</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>List of expectations that are not being met (if any)
+Take account of anticipated operating conditons</t>
+  </si>
+  <si>
+    <t>Reviewed terms of the
+ Railway Concession</t>
+  </si>
+  <si>
+    <t>On the Date of Entry into Force</t>
+  </si>
+  <si>
+    <t>Approval / Denial of autorisation</t>
+  </si>
+  <si>
+    <t>Prior to expiry of Railway Agreement</t>
+  </si>
+  <si>
+    <t>10 Year extention of Railway 
+operation rights / or transfer to a Third Party</t>
+  </si>
+  <si>
+    <t>Risk of transfer to a third 
+party if pre-emption is not exercised</t>
   </si>
   <si>
     <r>
@@ -323,7 +378,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -333,29 +387,12 @@
     </r>
   </si>
   <si>
-    <t>Within the 4th quarter of every two (2) year 
-period commencing upon Project Commissionin</t>
-  </si>
-  <si>
-    <t>Railway Project Company</t>
-  </si>
-  <si>
-    <t>Not specified</t>
-  </si>
-  <si>
-    <t>Independent Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approved Maintainance Reports </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Approval of Independent 
 Expert Report </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -365,16 +402,12 @@
     </r>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Review of terms of Railway Concession 
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -384,31 +417,11 @@
     </r>
   </si>
   <si>
-    <t>Every 5 years during the term 
-of the Railway Agreement</t>
-  </si>
-  <si>
-    <t>Railway Project Company
-/ State</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>List of expectations that are not being met (if any)
-Take account of anticipated operating conditons</t>
-  </si>
-  <si>
-    <t>Reviewed terms of the
- Railway Concession</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Request for an autorisation to use Railway facilities for transport of the Sale Products, the Goods and the Nabeda Goods </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -418,9 +431,6 @@
     </r>
   </si>
   <si>
-    <t>On the Date of Entry into Force</t>
-  </si>
-  <si>
     <r>
       <t>Autorisation to transport 
 Sale Products, the Goods 
@@ -428,7 +438,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -438,15 +447,11 @@
     </r>
   </si>
   <si>
-    <t>Approval / Denial of autorisation</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Railway Operatorship Transfer </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -456,16 +461,12 @@
     </r>
   </si>
   <si>
-    <t>Prior to expiry of Railway Agreement</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Execise of Operation
  pre-emption right </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
@@ -474,43 +475,18 @@
       <t>(Art. 12.2.2 (c))</t>
     </r>
   </si>
-  <si>
-    <t>10 Year extention of Railway 
-operation rights / or transfer to a Third Party</t>
-  </si>
-  <si>
-    <t>Risk of transfer to a third 
-party if pre-emption is not exercised</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -525,22 +501,22 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.24994659260841701"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -549,92 +525,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,52 +543,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,7 +575,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -990,296 +861,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M10"/>
+  <dimension ref="A4:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="25.140625" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="14" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="J5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:13" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="L8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="235.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="6"/>
+      <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>18</v>
+    <row r="10" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="F4:F5"/>
+  <mergeCells count="12">
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1290,7 +1133,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1302,7 +1145,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
